--- a/Standard_Library_TestCase_ScheduleQueueUtil.xlsx
+++ b/Standard_Library_TestCase_ScheduleQueueUtil.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="11" r:id="rId1"/>
@@ -54,7 +59,7 @@
     <definedName name="Status5" localSheetId="1">#REF!</definedName>
     <definedName name="Status5">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1431,14 +1436,14 @@
     <xf numFmtId="177" fontId="33" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -1564,12 +1569,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1611,7 +1619,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1646,7 +1654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1858,7 +1866,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1869,14 +1877,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="4"/>
@@ -1930,10 +1938,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2025,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
+    <sheetView zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
       <selection activeCell="C5" activeCellId="1" sqref="B2 C5"/>
     </sheetView>
   </sheetViews>
@@ -2675,7 +2683,7 @@
       <c r="G29" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="60" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="57"/>
@@ -2770,7 +2778,7 @@
       <c r="G33" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="60" t="s">
         <v>62</v>
       </c>
       <c r="I33" s="57"/>

--- a/Standard_Library_TestCase_ScheduleQueueUtil.xlsx
+++ b/Standard_Library_TestCase_ScheduleQueueUtil.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884"/>
+    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="11" r:id="rId1"/>
@@ -59,12 +54,12 @@
     <definedName name="Status5" localSheetId="1">#REF!</definedName>
     <definedName name="Status5">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Test Environment</t>
   </si>
@@ -227,178 +222,11 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>isScheduleItemExistByItemName(String scheduleItemName)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:input the invalidate "scheduleItemName" is exist in windChill 
-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1:input the invalidate "scheduleItemName" is not exist in windchill</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:input the value of "scheduleItemName" is empty
-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1:input the invalidate "scheduleItemName" is null</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExistByItemName("commonScheduleQueue"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExistByItemName("asd"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExistByItemName(""));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExistByItemName(null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>isScheduleItemExistByItem(ScheduleItem scheduleItem)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:input the invalidate "scheduleItem" is exist in windChill 
-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1:input the invalidate "scheduleItem" is not exist in windchill</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1:input the invalidate "scheduleItem" is null</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExistByItem(getScheduleItemByQueueName("commonScheduleQueue")));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExistByItem(getScheduleItemByQueueName("asd")));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExistByItem(null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>isScheduleItemExist(String scheduleItemName,String scheduleQueueName)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:input the invalidate " scheduleItemName,scheduleQueueName" is exist in windChill 
-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1:input the invalidate "scheduleItemName,scheduleQueueName" is not exist in windchill</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:input the value of "scheduleItemName,scheduleQueueName" is empty
-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1:input the invalidate "scheduleItemName,scheduleQueueName" is null</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExist("Unfinished Work Flow Check Queue1", "Unfinished Work Flow Check Queue1"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExist("asd", "asd"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(isScheduleItemExist("", ""));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScheduleItem(String scheduleQueueName, String scheduleItemName)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getScheduleItem("Queue3", "Queue3"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getScheduleItem("asd", "asd"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getScheduleItem("", ""));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getScheduleItem(null, null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScheduleItemByItemName(String scheduleItemName)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:input the invalidate " scheduleItemName" is exist in windChill 
-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1:input the invalidate "scheduleItemName" is not exist in windchill</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:input the value of "scheduleItemName" is empty
-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1:input the invalidate "scheduleItemName" is null</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ScheduleItem object</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>ScheduleItem</t>
-  </si>
-  <si>
-    <t>System.out.println(getScheduleItemByItemName("Queue3"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getScheduleItemByItemName("asd"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getScheduleItemByItemName(""));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getScheduleItemByItemName(null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1:input the invalidate " scheduleQueueName" is exist in windChill 
@@ -428,6 +256,83 @@
   <si>
     <t>ScheduleQueueUtil</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>createScheduleQueue(String scheduleQueueName, String scheduleItemName, String scheduleItemDescription,
+   String targetClass, String targetMethod, Timestamp initialStartTime)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.input the value ",initialStartTime" is  empty</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.input the value " scheduleQueueName,initialStartTime" are  empty</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.input the value " scheduleQueueName" is empty</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.input the value " scheduleQueueName" is not exist in windChill,"targetMethod" is empty,"initialStartTime",</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.input the value " scheduleQueueName" is  exist in windChill</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.input the value " scheduleQueueName" is not exist in windChill</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest003
+</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest006
+</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest005
+</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest004
+</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createScheduleQueue("scheduleQueue-name2", "scheduleItem-name2", "schedule-discription2", "ScheduleQueueUtil", 
+       "getScheduleItem", WCUtil.getInitialStartTime("8", "00", "0")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createScheduleQueue("scheduleQueue-name2", "scheduleItem-name2", "schedule-discription2", "ScheduleQueueUtil",
+       "getScheduleItem", WCUtil.getInitialStartTime("8", "00", "0")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createScheduleQueue("scheduleQueue", "scheduleItem-name2", "schedule-discription2", "ScheduleQueueUtil", "",
+       WCUtil.getInitialStartTime("8", "00", "0")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createScheduleQueue("", "scheduleItem-name2", "schedule-discription2", "ScheduleQueueUtil", "getScheduleItem",
+       WCUtil.getInitialStartTime("8", "00", "0")));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createScheduleQueue("", "scheduleItem-name2", "schedule-discription2", "", "getScheduleItem", null));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createScheduleQueue("scheduleQueue-name3", "scheduleItem-name3", "", "", "getScheduleItem", null));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1569,15 +1474,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1619,7 +1521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1654,7 +1556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1866,7 +1768,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2031,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="1" sqref="B2 C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2069,7 +1971,7 @@
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2243,549 +2145,368 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72">
-      <c r="B11" s="48">
+    <row r="11" spans="1:11" ht="162">
+      <c r="B11" s="47">
         <v>2</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="41" t="b">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="51"/>
       <c r="J11" s="53"/>
       <c r="K11" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="162">
       <c r="B12" s="47"/>
-      <c r="C12" s="49" t="s">
-        <v>13</v>
-      </c>
+      <c r="C12" s="49"/>
       <c r="D12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="41" t="b">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="51"/>
       <c r="J12" s="53"/>
       <c r="K12" s="52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="54">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="162">
       <c r="B13" s="47"/>
       <c r="C13" s="49"/>
       <c r="D13" s="30" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="41" t="b">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="51"/>
       <c r="J13" s="53"/>
       <c r="K13" s="52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="162">
       <c r="B14" s="47"/>
       <c r="C14" s="55"/>
       <c r="D14" s="30" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="41" t="b">
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="57"/>
       <c r="J14" s="58"/>
       <c r="K14" s="59" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="90">
-      <c r="B15" s="47">
-        <v>3</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>45</v>
-      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="30" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="41" t="b">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="51"/>
       <c r="J15" s="53"/>
       <c r="K15" s="52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="108">
       <c r="B16" s="47"/>
-      <c r="C16" s="49" t="s">
-        <v>13</v>
-      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="30" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="41" t="b">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="51"/>
       <c r="J16" s="53"/>
       <c r="K16" s="52" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="54">
-      <c r="B17" s="47"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="47">
+        <v>3</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="56"/>
+        <v>24</v>
+      </c>
+      <c r="E17" s="50"/>
       <c r="F17" s="31" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="41" t="b">
+        <v>37</v>
+      </c>
+      <c r="H17" s="41">
+        <f>$H$15</f>
         <v>0</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="108">
-      <c r="B18" s="47">
-        <v>4</v>
-      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="54">
+      <c r="B18" s="47"/>
       <c r="C18" s="49" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="50"/>
       <c r="F18" s="31" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="41" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="53"/>
       <c r="K18" s="52" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="54">
       <c r="B19" s="47"/>
-      <c r="C19" s="49" t="s">
-        <v>13</v>
-      </c>
+      <c r="C19" s="49"/>
       <c r="D19" s="30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="31" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="41" t="b">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="53"/>
       <c r="K19" s="52" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="54">
       <c r="B20" s="47"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="E20" s="56"/>
       <c r="F20" s="31" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="54">
-      <c r="B21" s="47"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="54">
-      <c r="B22" s="47">
-        <v>5</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="54">
-      <c r="B23" s="47"/>
-      <c r="C23" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="54">
-      <c r="B24" s="47"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="54">
-      <c r="B25" s="47"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="54">
-      <c r="B26" s="47">
-        <v>6</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="41" t="str">
-        <f>$H$22</f>
-        <v>ScheduleItem object</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="54">
-      <c r="B27" s="47"/>
-      <c r="C27" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="54">
-      <c r="B28" s="47"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="54">
-      <c r="B29" s="47"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="54">
-      <c r="B30" s="47">
-        <v>7</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="41" t="str">
-        <f>$H$22</f>
-        <v>ScheduleItem object</v>
-      </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="54">
-      <c r="B31" s="47"/>
-      <c r="C31" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="54">
-      <c r="B32" s="47"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="54">
-      <c r="B33" s="47"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="59" t="s">
-        <v>83</v>
-      </c>
+    <row r="21" spans="2:11" ht="18.75">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="2:11" ht="18.75">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="2:11" ht="18.75">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" ht="18.75">
+      <c r="B24" s="54"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" ht="18.75">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" ht="18.75">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" ht="18.75">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" ht="18.75">
+      <c r="B28" s="54"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" ht="18.75">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" ht="18.75">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" ht="18.75">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="18.75">
+      <c r="B32" s="54"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="2:11" ht="18.75">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="2:11" ht="18.75">
       <c r="B34" s="33"/>
@@ -2812,10 +2533,10 @@
       <c r="K35" s="36"/>
     </row>
     <row r="36" spans="2:11" ht="18.75">
-      <c r="B36" s="33"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="34"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="40"/>
@@ -2824,10 +2545,10 @@
       <c r="K36" s="36"/>
     </row>
     <row r="37" spans="2:11" ht="18.75">
-      <c r="B37" s="54"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="34"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="33"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
       <c r="H37" s="40"/>
@@ -2848,10 +2569,10 @@
       <c r="K38" s="36"/>
     </row>
     <row r="39" spans="2:11" ht="18.75">
-      <c r="B39" s="33"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="40"/>
@@ -2859,119 +2580,119 @@
       <c r="J39" s="39"/>
       <c r="K39" s="36"/>
     </row>
-    <row r="40" spans="2:11" ht="18.75">
+    <row r="40" spans="2:11" ht="18">
       <c r="B40" s="33"/>
       <c r="C40" s="34"/>
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="40"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="38"/>
       <c r="J40" s="39"/>
       <c r="K40" s="36"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75">
-      <c r="B41" s="54"/>
+    <row r="41" spans="2:11" ht="18">
+      <c r="B41" s="33"/>
       <c r="C41" s="34"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="33"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="40"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="38"/>
       <c r="J41" s="39"/>
       <c r="K41" s="36"/>
     </row>
-    <row r="42" spans="2:11" ht="18.75">
+    <row r="42" spans="2:11" ht="18">
       <c r="B42" s="33"/>
       <c r="C42" s="34"/>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
-      <c r="H42" s="40"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="38"/>
       <c r="J42" s="39"/>
       <c r="K42" s="36"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75">
+    <row r="43" spans="2:11" ht="18">
       <c r="B43" s="33"/>
       <c r="C43" s="34"/>
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
-      <c r="H43" s="40"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="38"/>
       <c r="J43" s="39"/>
       <c r="K43" s="36"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75">
+    <row r="44" spans="2:11" ht="18">
       <c r="B44" s="33"/>
       <c r="C44" s="34"/>
       <c r="D44" s="35"/>
       <c r="E44" s="36"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
-      <c r="H44" s="40"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="38"/>
       <c r="J44" s="39"/>
       <c r="K44" s="36"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75">
-      <c r="B45" s="54"/>
+    <row r="45" spans="2:11" ht="18">
+      <c r="B45" s="33"/>
       <c r="C45" s="34"/>
       <c r="D45" s="35"/>
-      <c r="E45" s="33"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
-      <c r="H45" s="40"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="38"/>
       <c r="J45" s="39"/>
       <c r="K45" s="36"/>
     </row>
-    <row r="46" spans="2:11" ht="18.75">
+    <row r="46" spans="2:11" ht="18">
       <c r="B46" s="33"/>
       <c r="C46" s="34"/>
       <c r="D46" s="35"/>
       <c r="E46" s="36"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
-      <c r="H46" s="40"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="38"/>
       <c r="J46" s="39"/>
       <c r="K46" s="36"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75">
+    <row r="47" spans="2:11" ht="18">
       <c r="B47" s="33"/>
       <c r="C47" s="34"/>
       <c r="D47" s="35"/>
       <c r="E47" s="36"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
-      <c r="H47" s="40"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="38"/>
       <c r="J47" s="39"/>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75">
+    <row r="48" spans="2:11" ht="18">
       <c r="B48" s="33"/>
       <c r="C48" s="34"/>
       <c r="D48" s="35"/>
       <c r="E48" s="36"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
-      <c r="H48" s="40"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="38"/>
       <c r="J48" s="39"/>
       <c r="K48" s="36"/>
     </row>
     <row r="49" spans="2:11" ht="18.75">
-      <c r="B49" s="54"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="34"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="33"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="40"/>
@@ -3003,14 +2724,14 @@
       <c r="J51" s="39"/>
       <c r="K51" s="36"/>
     </row>
-    <row r="52" spans="2:11" ht="18.75">
-      <c r="B52" s="54"/>
+    <row r="52" spans="2:11" ht="18">
+      <c r="B52" s="33"/>
       <c r="C52" s="34"/>
       <c r="D52" s="35"/>
-      <c r="E52" s="33"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
-      <c r="H52" s="40"/>
+      <c r="H52" s="37"/>
       <c r="I52" s="38"/>
       <c r="J52" s="39"/>
       <c r="K52" s="36"/>
@@ -3111,14 +2832,14 @@
       <c r="J60" s="39"/>
       <c r="K60" s="36"/>
     </row>
-    <row r="61" spans="2:11" ht="18">
+    <row r="61" spans="2:11" ht="18.75">
       <c r="B61" s="33"/>
       <c r="C61" s="34"/>
       <c r="D61" s="35"/>
       <c r="E61" s="36"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="38"/>
       <c r="J61" s="39"/>
       <c r="K61" s="36"/>
@@ -3147,26 +2868,26 @@
       <c r="J63" s="39"/>
       <c r="K63" s="36"/>
     </row>
-    <row r="64" spans="2:11" ht="18.75">
+    <row r="64" spans="2:11" ht="18">
       <c r="B64" s="33"/>
       <c r="C64" s="34"/>
       <c r="D64" s="35"/>
       <c r="E64" s="36"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
-      <c r="H64" s="40"/>
+      <c r="H64" s="37"/>
       <c r="I64" s="38"/>
       <c r="J64" s="39"/>
       <c r="K64" s="36"/>
     </row>
-    <row r="65" spans="2:11" ht="18">
+    <row r="65" spans="2:11" ht="18.75">
       <c r="B65" s="33"/>
       <c r="C65" s="34"/>
       <c r="D65" s="35"/>
       <c r="E65" s="36"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="H65" s="40"/>
       <c r="I65" s="38"/>
       <c r="J65" s="39"/>
       <c r="K65" s="36"/>
@@ -3195,14 +2916,14 @@
       <c r="J67" s="39"/>
       <c r="K67" s="36"/>
     </row>
-    <row r="68" spans="2:11" ht="18">
+    <row r="68" spans="2:11" ht="18.75">
       <c r="B68" s="33"/>
       <c r="C68" s="34"/>
       <c r="D68" s="35"/>
       <c r="E68" s="36"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="H68" s="40"/>
       <c r="I68" s="38"/>
       <c r="J68" s="39"/>
       <c r="K68" s="36"/>
@@ -3219,14 +2940,14 @@
       <c r="J69" s="39"/>
       <c r="K69" s="36"/>
     </row>
-    <row r="70" spans="2:11" ht="18">
+    <row r="70" spans="2:11" ht="18.75">
       <c r="B70" s="33"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
       <c r="E70" s="36"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
+      <c r="H70" s="40"/>
       <c r="I70" s="38"/>
       <c r="J70" s="39"/>
       <c r="K70" s="36"/>
@@ -3243,14 +2964,14 @@
       <c r="J71" s="39"/>
       <c r="K71" s="36"/>
     </row>
-    <row r="72" spans="2:11" ht="18">
+    <row r="72" spans="2:11" ht="18.75">
       <c r="B72" s="33"/>
       <c r="C72" s="34"/>
       <c r="D72" s="35"/>
       <c r="E72" s="36"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
+      <c r="H72" s="40"/>
       <c r="I72" s="38"/>
       <c r="J72" s="39"/>
       <c r="K72" s="36"/>
@@ -3279,26 +3000,26 @@
       <c r="J74" s="39"/>
       <c r="K74" s="36"/>
     </row>
-    <row r="75" spans="2:11" ht="18.75">
+    <row r="75" spans="2:11" ht="18">
       <c r="B75" s="33"/>
       <c r="C75" s="34"/>
       <c r="D75" s="35"/>
       <c r="E75" s="36"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
-      <c r="H75" s="40"/>
+      <c r="H75" s="37"/>
       <c r="I75" s="38"/>
       <c r="J75" s="39"/>
       <c r="K75" s="36"/>
     </row>
-    <row r="76" spans="2:11" ht="18.75">
+    <row r="76" spans="2:11" ht="18">
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
       <c r="D76" s="35"/>
       <c r="E76" s="36"/>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
-      <c r="H76" s="40"/>
+      <c r="H76" s="37"/>
       <c r="I76" s="38"/>
       <c r="J76" s="39"/>
       <c r="K76" s="36"/>
@@ -3315,203 +3036,47 @@
       <c r="J77" s="39"/>
       <c r="K77" s="36"/>
     </row>
-    <row r="78" spans="2:11" ht="18.75">
+    <row r="78" spans="2:11" ht="18">
       <c r="B78" s="33"/>
       <c r="C78" s="34"/>
       <c r="D78" s="35"/>
       <c r="E78" s="36"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
-      <c r="H78" s="40"/>
+      <c r="H78" s="37"/>
       <c r="I78" s="38"/>
       <c r="J78" s="39"/>
       <c r="K78" s="36"/>
     </row>
-    <row r="79" spans="2:11" ht="18">
+    <row r="79" spans="2:11" ht="18.75">
       <c r="B79" s="33"/>
       <c r="C79" s="34"/>
       <c r="D79" s="35"/>
       <c r="E79" s="36"/>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
+      <c r="H79" s="40"/>
       <c r="I79" s="38"/>
       <c r="J79" s="39"/>
       <c r="K79" s="36"/>
     </row>
-    <row r="80" spans="2:11" ht="18">
+    <row r="80" spans="2:11" ht="18.75">
       <c r="B80" s="33"/>
       <c r="C80" s="34"/>
       <c r="D80" s="35"/>
       <c r="E80" s="36"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="38"/>
       <c r="J80" s="39"/>
       <c r="K80" s="36"/>
-    </row>
-    <row r="81" spans="2:11" ht="18.75">
-      <c r="B81" s="33"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="36"/>
-    </row>
-    <row r="82" spans="2:11" ht="18">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="36"/>
-    </row>
-    <row r="83" spans="2:11" ht="18.75">
-      <c r="B83" s="33"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="36"/>
-    </row>
-    <row r="84" spans="2:11" ht="18">
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="36"/>
-    </row>
-    <row r="85" spans="2:11" ht="18.75">
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="36"/>
-    </row>
-    <row r="86" spans="2:11" ht="18">
-      <c r="B86" s="33"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="36"/>
-    </row>
-    <row r="87" spans="2:11" ht="18.75">
-      <c r="B87" s="33"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="36"/>
-    </row>
-    <row r="88" spans="2:11" ht="18">
-      <c r="B88" s="33"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="36"/>
-    </row>
-    <row r="89" spans="2:11" ht="18">
-      <c r="B89" s="33"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="36"/>
-    </row>
-    <row r="90" spans="2:11" ht="18">
-      <c r="B90" s="33"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="36"/>
-    </row>
-    <row r="91" spans="2:11" ht="18">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="36"/>
-    </row>
-    <row r="92" spans="2:11" ht="18.75">
-      <c r="B92" s="33"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="36"/>
-    </row>
-    <row r="93" spans="2:11" ht="18.75">
-      <c r="B93" s="33"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="36"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I80">
       <formula1>"-,Pass,Fail,Pass With Issues,TBD"</formula1>
     </dataValidation>
   </dataValidations>
